--- a/resources/results/kegg/David_enriched_pathways_2.xlsx
+++ b/resources/results/kegg/David_enriched_pathways_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairedeng/code/mirna/resources/results/kegg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C65160F-97C1-B247-AA16-C7D1D1520EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB27B1-12E6-814B-AF35-D321134B2FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="500" windowWidth="68800" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="David_enriched_pathways" sheetId="1" r:id="rId1"/>
@@ -1908,7 +1908,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Signaling pathways regulating pluripotency of stem cells</a:t>
           </a:r>
         </a:p>
@@ -2013,7 +2013,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Axon guidance</a:t>
           </a:r>
         </a:p>
@@ -2027,7 +2027,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.19514</cdr:x>
-      <cdr:y>0.23494</cdr:y>
+      <cdr:y>0.2549</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2042,8 +2042,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1072021" y="1003379"/>
-          <a:ext cx="1490963" cy="137911"/>
+          <a:off x="1071990" y="1003368"/>
+          <a:ext cx="1490963" cy="234882"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2118,7 +2118,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>FoxO signaling pathway</a:t>
           </a:r>
         </a:p>
@@ -2223,7 +2223,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Pathways in cancer</a:t>
           </a:r>
         </a:p>
@@ -2328,7 +2328,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Proteoglycans in cancer</a:t>
           </a:r>
         </a:p>
@@ -2433,7 +2433,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>mTOR signaling pathway</a:t>
           </a:r>
         </a:p>
@@ -2538,7 +2538,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Transcriptional misregulation in cancer</a:t>
           </a:r>
         </a:p>
@@ -2643,7 +2643,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>PI3K-Akt signaling pathway</a:t>
           </a:r>
         </a:p>
@@ -2748,7 +2748,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>MAPK signaling pathway</a:t>
           </a:r>
         </a:p>
@@ -2853,7 +2853,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Focal adhesion</a:t>
           </a:r>
         </a:p>
@@ -2958,7 +2958,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Human papillomavirus infection</a:t>
           </a:r>
         </a:p>
@@ -3063,7 +3063,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Regulation of actin cytoskeleton</a:t>
           </a:r>
         </a:p>
@@ -3168,7 +3168,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Ras signaling pathway</a:t>
           </a:r>
         </a:p>
@@ -3273,7 +3273,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Endocytosis</a:t>
           </a:r>
         </a:p>
@@ -3378,7 +3378,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>cAMP signaling pathway</a:t>
           </a:r>
         </a:p>
@@ -3483,7 +3483,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>Cellular senescence</a:t>
           </a:r>
         </a:p>
@@ -3793,7 +3793,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8:W11"/>
+      <selection activeCell="J27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3827,7 +3827,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1">
-        <f>-LOG10(D2)</f>
+        <f t="shared" ref="C2:C17" si="0">-LOG10(D2)</f>
         <v>4.1804560644581317</v>
       </c>
       <c r="D2" s="2">
@@ -3842,7 +3842,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="1">
-        <f>-LOG10(D3)</f>
+        <f t="shared" si="0"/>
         <v>3.5686362358410126</v>
       </c>
       <c r="D3" s="2">
@@ -3857,7 +3857,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1">
-        <f>-LOG10(D4)</f>
+        <f t="shared" si="0"/>
         <v>3.5686362358410126</v>
       </c>
       <c r="D4" s="2">
@@ -3872,7 +3872,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="1">
-        <f>-LOG10(D5)</f>
+        <f t="shared" si="0"/>
         <v>2.3767507096020997</v>
       </c>
       <c r="D5" s="2">
@@ -3887,7 +3887,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1">
-        <f>-LOG10(D6)</f>
+        <f t="shared" si="0"/>
         <v>1.6575773191777938</v>
       </c>
       <c r="D6" s="2">
@@ -3902,7 +3902,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1">
-        <f>-LOG10(D7)</f>
+        <f t="shared" si="0"/>
         <v>4.6020599913279625</v>
       </c>
       <c r="D7" s="2">
@@ -3917,7 +3917,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1">
-        <f>-LOG10(D8)</f>
+        <f t="shared" si="0"/>
         <v>1.6777807052660807</v>
       </c>
       <c r="D8" s="2">
@@ -3932,7 +3932,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1">
-        <f>-LOG10(D9)</f>
+        <f t="shared" si="0"/>
         <v>3.8538719643217618</v>
       </c>
       <c r="D9" s="2">
@@ -3947,7 +3947,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1">
-        <f>-LOG10(D10)</f>
+        <f t="shared" si="0"/>
         <v>3.1426675035687315</v>
       </c>
       <c r="D10" s="2">
@@ -3962,7 +3962,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="1">
-        <f>-LOG10(D11)</f>
+        <f t="shared" si="0"/>
         <v>2.2596373105057563</v>
       </c>
       <c r="D11" s="2">
@@ -3977,7 +3977,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1">
-        <f>-LOG10(D12)</f>
+        <f t="shared" si="0"/>
         <v>2.744727494896694</v>
       </c>
       <c r="D12" s="2">
@@ -3992,7 +3992,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="1">
-        <f>-LOG10(D13)</f>
+        <f t="shared" si="0"/>
         <v>3.8538719643217618</v>
       </c>
       <c r="D13" s="2">
@@ -4007,7 +4007,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="1">
-        <f>-LOG10(D14)</f>
+        <f t="shared" si="0"/>
         <v>3.1426675035687315</v>
       </c>
       <c r="D14" s="2">
@@ -4022,7 +4022,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1">
-        <f>-LOG10(D15)</f>
+        <f t="shared" si="0"/>
         <v>2.4948500216800942</v>
       </c>
       <c r="D15" s="2">
@@ -4037,7 +4037,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="1">
-        <f>-LOG10(D16)</f>
+        <f t="shared" si="0"/>
         <v>3.431798275933005</v>
       </c>
       <c r="D16" s="2">
@@ -4052,7 +4052,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="1">
-        <f>-LOG10(D17)</f>
+        <f t="shared" si="0"/>
         <v>3.8860566476931631</v>
       </c>
       <c r="D17" s="2">
